--- a/data/Comparing B.xlsx
+++ b/data/Comparing B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School Stuff\College\First Year\Summer\APMA-Covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6211F0D-E55B-44D1-8167-32F78F1A5274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84889B72-A35B-4D7F-9286-1EE2F5F7F230}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3829F33D-9238-4077-B2C0-F5AF0240D714}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>B0</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -178,7 +181,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -310,7 +313,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$AP$2</c:f>
+              <c:f>Sheet1!$C$2:$AQ$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -452,7 +455,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -487,7 +490,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -619,7 +622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$AP$3</c:f>
+              <c:f>Sheet1!$C$3:$AQ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -761,7 +764,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -796,7 +799,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -928,7 +931,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$AP$4</c:f>
+              <c:f>Sheet1!$C$4:$AQ$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1070,7 +1073,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1105,7 +1108,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1237,7 +1240,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$AP$5</c:f>
+              <c:f>Sheet1!$C$5:$AQ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1379,7 +1382,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1546,7 +1549,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$AP$6</c:f>
+              <c:f>Sheet1!$C$6:$AQ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1688,7 +1691,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1723,7 +1726,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$AP$1</c:f>
+              <c:f>Sheet1!$C$1:$AQ$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1855,7 +1858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$AP$7</c:f>
+              <c:f>Sheet1!$C$7:$AQ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2072,7 +2075,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2269,7 +2272,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2304,7 +2307,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2436,7 +2439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$AP$10</c:f>
+              <c:f>Sheet1!$C$10:$AQ$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2578,7 +2581,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2613,7 +2616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2745,7 +2748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$AP$11</c:f>
+              <c:f>Sheet1!$C$11:$AQ$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2887,7 +2890,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2922,7 +2925,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3054,7 +3057,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$AP$12</c:f>
+              <c:f>Sheet1!$C$12:$AQ$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3196,7 +3199,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Sheet1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3231,7 +3234,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3363,7 +3366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$AP$13</c:f>
+              <c:f>Sheet1!$C$13:$AQ$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3505,7 +3508,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3540,7 +3543,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3672,7 +3675,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$AP$14</c:f>
+              <c:f>Sheet1!$C$14:$AQ$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3814,7 +3817,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3849,7 +3852,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$AP$9</c:f>
+              <c:f>Sheet1!$C$9:$AQ$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -3981,7 +3984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$AP$15</c:f>
+              <c:f>Sheet1!$C$15:$AQ$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -4394,7 +4397,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
+              <c:f>Sheet1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4429,7 +4432,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4621,7 +4624,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$BJ$18</c:f>
+              <c:f>Sheet1!$C$18:$BK$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4823,7 +4826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
+              <c:f>Sheet1!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4858,7 +4861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -5050,7 +5053,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$BJ$19</c:f>
+              <c:f>Sheet1!$C$19:$BK$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -5252,7 +5255,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5287,7 +5290,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -5479,7 +5482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$BJ$20</c:f>
+              <c:f>Sheet1!$C$20:$BK$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -5681,7 +5684,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
+              <c:f>Sheet1!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5716,7 +5719,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -5908,7 +5911,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$BJ$21</c:f>
+              <c:f>Sheet1!$C$21:$BK$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6110,7 +6113,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
+              <c:f>Sheet1!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6145,7 +6148,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6337,7 +6340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$BJ$22</c:f>
+              <c:f>Sheet1!$C$22:$BK$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6539,7 +6542,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6574,7 +6577,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6766,7 +6769,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$BJ$23</c:f>
+              <c:f>Sheet1!$C$23:$BK$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -6968,7 +6971,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7009,7 +7012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7201,7 +7204,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$BJ$24</c:f>
+              <c:f>Sheet1!$C$24:$BK$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7403,7 +7406,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>Sheet1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7444,7 +7447,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7636,7 +7639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$BJ$25</c:f>
+              <c:f>Sheet1!$C$25:$BK$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7838,7 +7841,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$26</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7879,7 +7882,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$BJ$17</c:f>
+              <c:f>Sheet1!$C$17:$BK$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -8071,7 +8074,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$BJ$26</c:f>
+              <c:f>Sheet1!$C$26:$BK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -8284,7 +8287,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="60"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8348,7 +8351,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="60"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8545,7 +8548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
+              <c:f>Sheet1!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8580,7 +8583,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$AQ$28</c:f>
+              <c:f>Sheet1!$C$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -8712,7 +8715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$AP$29</c:f>
+              <c:f>Sheet1!$C$29:$AQ$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -8854,7 +8857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
+              <c:f>Sheet1!$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8889,7 +8892,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$AQ$28</c:f>
+              <c:f>Sheet1!$C$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -9021,7 +9024,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$AP$30</c:f>
+              <c:f>Sheet1!$C$30:$AQ$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -9163,7 +9166,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
+              <c:f>Sheet1!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9198,7 +9201,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$AQ$28</c:f>
+              <c:f>Sheet1!$C$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -9330,7 +9333,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$AP$31</c:f>
+              <c:f>Sheet1!$C$31:$AQ$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -11916,16 +11919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>369026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>50074</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>102326</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11952,16 +11955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>250370</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>536120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119741</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>111580</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11988,16 +11991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413658</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12024,13 +12027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>511629</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>168727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>250371</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>21771</xdr:rowOff>
@@ -12358,242 +12361,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C28087-CA7E-4E23-BA5E-DE67050DCA46}">
-  <dimension ref="A1:BJ31"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B1">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
         <v>60</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>61</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>62</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>63</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>64</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>65</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>66</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>67</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>68</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>69</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>70</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>71</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>72</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>73</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>74</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>75</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>76</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>77</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>78</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>79</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>80</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>81</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>82</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>83</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>84</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>85</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>86</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>87</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>88</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>89</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>90</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>91</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>92</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>93</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>94</v>
       </c>
-      <c r="AK1">
+      <c r="AL1">
         <v>95</v>
       </c>
-      <c r="AL1">
+      <c r="AM1">
         <v>96</v>
       </c>
-      <c r="AM1">
+      <c r="AN1">
         <v>97</v>
       </c>
-      <c r="AN1">
+      <c r="AO1">
         <v>98</v>
       </c>
-      <c r="AO1">
+      <c r="AP1">
         <v>99</v>
       </c>
-      <c r="AP1">
+      <c r="AQ1">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>50</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>63.2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>68</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>67.2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>69.599999999999994</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>70.599999999999994</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>74.599999999999994</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>75</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>73</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>79.8</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>80.2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>81</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>83.8</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>81.8</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>84.8</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>88</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>89.6</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>90</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>92.8</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>94.2</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>92.8</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>96</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>96.4</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>96.8</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>98.4</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>99</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>99.8</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>99.6</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>99</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>99.6</v>
       </c>
-      <c r="AE2">
-        <v>100</v>
-      </c>
       <c r="AF2">
         <v>100</v>
       </c>
       <c r="AG2">
+        <v>100</v>
+      </c>
+      <c r="AH2">
         <v>99.6</v>
       </c>
-      <c r="AH2">
-        <v>100</v>
-      </c>
       <c r="AI2">
         <v>100</v>
       </c>
@@ -12618,92 +12621,92 @@
       <c r="AP2">
         <v>100</v>
       </c>
+      <c r="AQ2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>60</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>77.8</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>79.2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>81.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>84.6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>81.400000000000006</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>84.4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>85.4</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>90.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>90.8</v>
-      </c>
-      <c r="K3">
-        <v>92</v>
       </c>
       <c r="L3">
         <v>92</v>
       </c>
       <c r="M3">
+        <v>92</v>
+      </c>
+      <c r="N3">
         <v>91.2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>93.8</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>94.8</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>94.4</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>96.8</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>96.4</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>98.4</v>
-      </c>
-      <c r="T3">
-        <v>98</v>
       </c>
       <c r="U3">
         <v>98</v>
       </c>
       <c r="V3">
+        <v>98</v>
+      </c>
+      <c r="W3">
         <v>98.4</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>99.8</v>
-      </c>
-      <c r="X3">
-        <v>99.4</v>
       </c>
       <c r="Y3">
         <v>99.4</v>
       </c>
       <c r="Z3">
+        <v>99.4</v>
+      </c>
+      <c r="AA3">
         <v>99.6</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>99.8</v>
       </c>
-      <c r="AB3">
-        <v>100</v>
-      </c>
       <c r="AC3">
         <v>100</v>
       </c>
@@ -12746,92 +12749,92 @@
       <c r="AP3">
         <v>100</v>
       </c>
+      <c r="AQ3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>70</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>88.2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>88.8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>90.2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>89.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>94.2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>95</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>95.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>95.2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>96.8</v>
-      </c>
-      <c r="K4">
-        <v>97.8</v>
       </c>
       <c r="L4">
         <v>97.8</v>
       </c>
       <c r="M4">
+        <v>97.8</v>
+      </c>
+      <c r="N4">
         <v>98.8</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>98</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>98.2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>99.4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>98.4</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>99.4</v>
       </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
       <c r="T4">
         <v>100</v>
       </c>
       <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
         <v>99.6</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>99.8</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>99.6</v>
       </c>
-      <c r="X4">
-        <v>100</v>
-      </c>
       <c r="Y4">
         <v>100</v>
       </c>
       <c r="Z4">
+        <v>100</v>
+      </c>
+      <c r="AA4">
         <v>99.8</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>99.6</v>
       </c>
-      <c r="AB4">
-        <v>100</v>
-      </c>
       <c r="AC4">
         <v>100</v>
       </c>
@@ -12874,25 +12877,25 @@
       <c r="AP4">
         <v>100</v>
       </c>
+      <c r="AQ4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>80</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>96.2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>96.8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>96.4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>97</v>
-      </c>
-      <c r="F5">
-        <v>98</v>
       </c>
       <c r="G5">
         <v>98</v>
@@ -12901,34 +12904,34 @@
         <v>98</v>
       </c>
       <c r="I5">
-        <v>99.4</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>99.4</v>
       </c>
       <c r="K5">
+        <v>99.4</v>
+      </c>
+      <c r="L5">
         <v>99.8</v>
-      </c>
-      <c r="L5">
-        <v>99.4</v>
       </c>
       <c r="M5">
         <v>99.4</v>
       </c>
       <c r="N5">
+        <v>99.4</v>
+      </c>
+      <c r="O5">
         <v>99.2</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>99.4</v>
-      </c>
-      <c r="P5">
-        <v>99.8</v>
       </c>
       <c r="Q5">
         <v>99.8</v>
       </c>
       <c r="R5">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -13002,34 +13005,34 @@
       <c r="AP5">
         <v>100</v>
       </c>
+      <c r="AQ5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>90</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>99.2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>98.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>99.4</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>99.6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>99.4</v>
-      </c>
-      <c r="G6">
-        <v>99.6</v>
       </c>
       <c r="H6">
         <v>99.6</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -13044,11 +13047,11 @@
         <v>100</v>
       </c>
       <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
         <v>99.8</v>
       </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
       <c r="P6">
         <v>100</v>
       </c>
@@ -13130,11 +13133,11 @@
       <c r="AP6">
         <v>100</v>
       </c>
+      <c r="AQ6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>100</v>
-      </c>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100</v>
       </c>
@@ -13258,380 +13261,383 @@
       <c r="AP7">
         <v>100</v>
       </c>
+      <c r="AQ7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="B9">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>60</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>61</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>62</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>63</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>65</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>66</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>67</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>68</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>69</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>70</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>71</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>72</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>73</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>74</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>75</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>76</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>77</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>78</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>79</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>80</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>81</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>82</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>83</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>84</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>85</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>86</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>87</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>88</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>89</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>90</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>91</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>92</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>93</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>94</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>95</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>96</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>97</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>98</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>99</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>50</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>15.8</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>14.6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>19.2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>20.399999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20.2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>14.6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>20.399999999999999</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>21.8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>23.6</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>22.2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>23</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>23.8</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>27.8</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>27.4</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>29.6</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>34.4</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>29.2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>33.799999999999997</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>33.6</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>40.799999999999997</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>41</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>45.2</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>49.4</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>51</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>54</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>57.8</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>62</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>64.2</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>69.8</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>77</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>79.400000000000006</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>84.4</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>92.8</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>92.6</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>96.2</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>99.2</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>99</v>
       </c>
-      <c r="AN10">
-        <v>100</v>
-      </c>
       <c r="AO10">
         <v>100</v>
       </c>
       <c r="AP10">
         <v>100</v>
       </c>
+      <c r="AQ10">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>60</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>24</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>19.8</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>21.6</v>
-      </c>
-      <c r="F11">
-        <v>23</v>
       </c>
       <c r="G11">
         <v>23</v>
       </c>
       <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11">
         <v>23.4</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>26.8</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>25.6</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>28.2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>28.4</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>29.8</v>
-      </c>
-      <c r="N11">
-        <v>32.200000000000003</v>
       </c>
       <c r="O11">
         <v>32.200000000000003</v>
       </c>
       <c r="P11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Q11">
         <v>35.6</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>37</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>39.4</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>44</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>40.6</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>47</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>48.4</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>51</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>56.6</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>56.2</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>59</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>65.400000000000006</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>69.8</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>73.599999999999994</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>78</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>80.599999999999994</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>87.8</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>87</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>91.2</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>94.4</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>96.2</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>99.2</v>
-      </c>
-      <c r="AL11">
-        <v>99.8</v>
       </c>
       <c r="AM11">
         <v>99.8</v>
       </c>
       <c r="AN11">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AO11">
         <v>100</v>
@@ -13639,249 +13645,249 @@
       <c r="AP11">
         <v>100</v>
       </c>
+      <c r="AQ11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>70</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>23.6</v>
-      </c>
-      <c r="C12">
-        <v>23.2</v>
       </c>
       <c r="D12">
         <v>23.2</v>
       </c>
       <c r="E12">
+        <v>23.2</v>
+      </c>
+      <c r="F12">
         <v>25.4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>27.6</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>24.8</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>30.6</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>29</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>33.799999999999997</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>32.6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>34.799999999999997</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>36.6</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>42.4</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>42.2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>45.6</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>43.4</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>51.6</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>50</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>54.8</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>56.2</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>62.2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>64.2</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>68.2</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>70.2</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>74.8</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>78.2</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>81.8</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>83.6</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>90.8</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>92</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>94.8</v>
-      </c>
-      <c r="AH12">
-        <v>97</v>
       </c>
       <c r="AI12">
         <v>97</v>
       </c>
       <c r="AJ12">
+        <v>97</v>
+      </c>
+      <c r="AK12">
         <v>98.8</v>
-      </c>
-      <c r="AK12">
-        <v>99.6</v>
       </c>
       <c r="AL12">
         <v>99.6</v>
       </c>
       <c r="AM12">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="AN12">
+        <v>100</v>
+      </c>
+      <c r="AO12">
         <v>99.8</v>
       </c>
-      <c r="AO12">
-        <v>100</v>
-      </c>
       <c r="AP12">
         <v>100</v>
       </c>
+      <c r="AQ12">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>80</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>26.4</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>25.8</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>26.2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>26</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>29.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>30.8</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>34.6</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>32.200000000000003</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>39.4</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>44</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>40.200000000000003</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>38.799999999999997</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>43.2</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>49.4</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>46.2</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>55.2</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>57</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>60.2</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>66.8</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>65.400000000000006</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>63.4</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>72.400000000000006</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>78.8</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>77.2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>86</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>85.2</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>90.8</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>92.4</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>94.8</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>95.4</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>97.4</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>97.8</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>99</v>
-      </c>
-      <c r="AJ13">
-        <v>99.6</v>
       </c>
       <c r="AK13">
         <v>99.6</v>
       </c>
       <c r="AL13">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="AM13">
         <v>100</v>
@@ -13895,113 +13901,113 @@
       <c r="AP13">
         <v>100</v>
       </c>
+      <c r="AQ13">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>90</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>31.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>28.2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>34.6</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>35.799999999999997</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>36.200000000000003</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>40.6</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>33</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>40</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>38.799999999999997</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>44.6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>46</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>46.8</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>50.4</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>56.4</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>56.6</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>59.4</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>60.8</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>67.400000000000006</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>67.599999999999994</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>72.400000000000006</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>76</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>78.400000000000006</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>80</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>83.8</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>90</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>90.4</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>94.6</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>95</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>96.2</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>97.2</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>98</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>98.4</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>99.6</v>
       </c>
-      <c r="AI14">
-        <v>100</v>
-      </c>
       <c r="AJ14">
         <v>100</v>
       </c>
@@ -14023,91 +14029,91 @@
       <c r="AP14">
         <v>100</v>
       </c>
+      <c r="AQ14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>100</v>
-      </c>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
         <v>35.200000000000003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>38.200000000000003</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>35.4</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>36.4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>40.6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>40.200000000000003</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>43.6</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>44.4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>48.6</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>49</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>55.8</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>59</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>57.2</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>61.6</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>63.6</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>67</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>73.2</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>72.599999999999994</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>80</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>78.599999999999994</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>83</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>87.6</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>90.4</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>90</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>92.6</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>96.2</v>
-      </c>
-      <c r="AB15">
-        <v>97.8</v>
       </c>
       <c r="AC15">
         <v>97.8</v>
@@ -14116,20 +14122,20 @@
         <v>97.8</v>
       </c>
       <c r="AE15">
+        <v>97.8</v>
+      </c>
+      <c r="AF15">
         <v>99.2</v>
-      </c>
-      <c r="AF15">
-        <v>99.4</v>
       </c>
       <c r="AG15">
         <v>99.4</v>
       </c>
       <c r="AH15">
+        <v>99.4</v>
+      </c>
+      <c r="AI15">
         <v>99.8</v>
       </c>
-      <c r="AI15">
-        <v>100</v>
-      </c>
       <c r="AJ15">
         <v>100</v>
       </c>
@@ -14151,346 +14157,349 @@
       <c r="AP15">
         <v>100</v>
       </c>
+      <c r="AQ15">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>41</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>42</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>43</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>44</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>45</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>46</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>47</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>48</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>49</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>51</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>52</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>53</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>54</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>55</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>56</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>57</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>58</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>59</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>60</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>61</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>62</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>63</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>64</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>65</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>66</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>67</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>68</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>69</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>70</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>71</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>72</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>73</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>74</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>75</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>76</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>77</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>78</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>79</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>80</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>81</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>82</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>83</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>84</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>85</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>86</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>87</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>88</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>89</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>90</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>91</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>92</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>93</v>
       </c>
-      <c r="BD17">
+      <c r="BE17">
         <v>94</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>95</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>96</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>97</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>98</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>99</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>82.6</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>81.8</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>82.4</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>81.400000000000006</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>83</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>84.4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>83.2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>81</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>83.4</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>85.6</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>88.8</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>89.2</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>88</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>89.4</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>88.8</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>88.4</v>
-      </c>
-      <c r="R18">
-        <v>91.2</v>
       </c>
       <c r="S18">
         <v>91.2</v>
       </c>
       <c r="T18">
+        <v>91.2</v>
+      </c>
+      <c r="U18">
         <v>91.8</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>89.6</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>91.8</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>93.4</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>93.2</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>94.4</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>95.6</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>94.8</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>95</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>96.2</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>96.4</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>94.2</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>96.8</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>94.8</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>97</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>97.2</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>98</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>98.6</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>97</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>99.2</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>97.8</v>
-      </c>
-      <c r="AO18">
-        <v>98.6</v>
       </c>
       <c r="AP18">
         <v>98.6</v>
       </c>
       <c r="AQ18">
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="AR18">
         <v>99</v>
       </c>
       <c r="AS18">
+        <v>99</v>
+      </c>
+      <c r="AT18">
         <v>99.8</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>99.2</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>99.4</v>
       </c>
-      <c r="AV18">
-        <v>100</v>
-      </c>
       <c r="AW18">
+        <v>100</v>
+      </c>
+      <c r="AX18">
         <v>99.6</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>99.8</v>
       </c>
-      <c r="AY18">
-        <v>100</v>
-      </c>
       <c r="AZ18">
         <v>100</v>
       </c>
@@ -14524,136 +14533,136 @@
       <c r="BJ18">
         <v>100</v>
       </c>
+      <c r="BK18">
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>94.6</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>95</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>97.2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>96</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>95.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>96</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>98.2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>97.2</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>97.4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>95</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>97.2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>99</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>98.6</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>98.2</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>98.6</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>97.8</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>98.4</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>98.8</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>99</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>98.6</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>99.2</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>99.4</v>
-      </c>
-      <c r="X19">
-        <v>99.6</v>
       </c>
       <c r="Y19">
         <v>99.6</v>
       </c>
       <c r="Z19">
+        <v>99.6</v>
+      </c>
+      <c r="AA19">
         <v>98.8</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>99.4</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>99.2</v>
-      </c>
-      <c r="AC19">
-        <v>99.4</v>
       </c>
       <c r="AD19">
         <v>99.4</v>
       </c>
       <c r="AE19">
+        <v>99.4</v>
+      </c>
+      <c r="AF19">
         <v>99.8</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>99.4</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>99.6</v>
-      </c>
-      <c r="AH19">
-        <v>99.8</v>
       </c>
       <c r="AI19">
         <v>99.8</v>
       </c>
       <c r="AJ19">
+        <v>99.8</v>
+      </c>
+      <c r="AK19">
         <v>99.4</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>99.8</v>
       </c>
-      <c r="AL19">
-        <v>100</v>
-      </c>
       <c r="AM19">
+        <v>100</v>
+      </c>
+      <c r="AN19">
         <v>99.8</v>
       </c>
-      <c r="AN19">
-        <v>100</v>
-      </c>
       <c r="AO19">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AP19">
         <v>99.8</v>
       </c>
       <c r="AQ19">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AR19">
         <v>100</v>
@@ -14668,11 +14677,11 @@
         <v>100</v>
       </c>
       <c r="AV19">
+        <v>100</v>
+      </c>
+      <c r="AW19">
         <v>99.8</v>
       </c>
-      <c r="AW19">
-        <v>100</v>
-      </c>
       <c r="AX19">
         <v>100</v>
       </c>
@@ -14712,85 +14721,85 @@
       <c r="BJ19">
         <v>100</v>
       </c>
+      <c r="BK19">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>98.8</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>99</v>
-      </c>
-      <c r="D20">
-        <v>99.4</v>
       </c>
       <c r="E20">
         <v>99.4</v>
       </c>
       <c r="F20">
+        <v>99.4</v>
+      </c>
+      <c r="G20">
         <v>99.6</v>
       </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
       <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
         <v>99.6</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>99.8</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>99.4</v>
       </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
       <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
         <v>99.4</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>99.6</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>99.8</v>
       </c>
-      <c r="O20">
-        <v>100</v>
-      </c>
       <c r="P20">
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="R20">
         <v>99.8</v>
       </c>
       <c r="S20">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="T20">
+        <v>100</v>
+      </c>
+      <c r="U20">
         <v>99.8</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>99.6</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>99.8</v>
       </c>
-      <c r="W20">
-        <v>100</v>
-      </c>
       <c r="X20">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="Y20">
         <v>99.8</v>
       </c>
       <c r="Z20">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AA20">
         <v>100</v>
@@ -14900,14 +14909,14 @@
       <c r="BJ20">
         <v>100</v>
       </c>
+      <c r="BK20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>50</v>
       </c>
-      <c r="B21">
-        <v>100</v>
-      </c>
       <c r="C21">
         <v>100</v>
       </c>
@@ -14942,11 +14951,11 @@
         <v>100</v>
       </c>
       <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21">
         <v>99.8</v>
       </c>
-      <c r="O21">
-        <v>100</v>
-      </c>
       <c r="P21">
         <v>100</v>
       </c>
@@ -15088,14 +15097,14 @@
       <c r="BJ21">
         <v>100</v>
       </c>
+      <c r="BK21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>60</v>
       </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
       <c r="C22">
         <v>100</v>
       </c>
@@ -15276,14 +15285,14 @@
       <c r="BJ22">
         <v>100</v>
       </c>
+      <c r="BK22">
+        <v>100</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>70</v>
       </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
       <c r="C23">
         <v>100</v>
       </c>
@@ -15464,14 +15473,14 @@
       <c r="BJ23">
         <v>100</v>
       </c>
+      <c r="BK23">
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>80</v>
       </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
       <c r="C24">
         <v>100</v>
       </c>
@@ -15652,14 +15661,14 @@
       <c r="BJ24">
         <v>100</v>
       </c>
+      <c r="BK24">
+        <v>100</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>90</v>
       </c>
-      <c r="B25">
-        <v>100</v>
-      </c>
       <c r="C25">
         <v>100</v>
       </c>
@@ -15840,11 +15849,11 @@
       <c r="BJ25">
         <v>100</v>
       </c>
+      <c r="BK25">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>100</v>
-      </c>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>100</v>
       </c>
@@ -16028,139 +16037,139 @@
       <c r="BJ26">
         <v>100</v>
       </c>
+      <c r="BK26">
+        <v>100</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="B28">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="C28">
         <v>60</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>61</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>62</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>63</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>64</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>65</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>66</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>67</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>68</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>69</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>70</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>71</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>72</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>73</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>74</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>75</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>76</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>77</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>78</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>79</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>80</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>81</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>82</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>83</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>84</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>85</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>86</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>87</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>88</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>89</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>90</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>91</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>92</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>93</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>94</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>95</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>96</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>97</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>98</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>99</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
       <c r="C29">
         <v>100</v>
       </c>
@@ -16281,25 +16290,25 @@
       <c r="AP29">
         <v>100</v>
       </c>
+      <c r="AQ29">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>96.2</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>96.8</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>96.4</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>97</v>
-      </c>
-      <c r="F30">
-        <v>98</v>
       </c>
       <c r="G30">
         <v>98</v>
@@ -16308,34 +16317,34 @@
         <v>98</v>
       </c>
       <c r="I30">
-        <v>99.4</v>
+        <v>98</v>
       </c>
       <c r="J30">
         <v>99.4</v>
       </c>
       <c r="K30">
+        <v>99.4</v>
+      </c>
+      <c r="L30">
         <v>99.8</v>
-      </c>
-      <c r="L30">
-        <v>99.4</v>
       </c>
       <c r="M30">
         <v>99.4</v>
       </c>
       <c r="N30">
+        <v>99.4</v>
+      </c>
+      <c r="O30">
         <v>99.2</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>99.4</v>
-      </c>
-      <c r="P30">
-        <v>99.8</v>
       </c>
       <c r="Q30">
         <v>99.8</v>
       </c>
       <c r="R30">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="S30">
         <v>100</v>
@@ -16409,121 +16418,121 @@
       <c r="AP30">
         <v>100</v>
       </c>
+      <c r="AQ30">
+        <v>100</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>26.4</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>25.8</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>26.2</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>26</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>29.2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>33</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>30.8</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>34.6</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>32.200000000000003</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>39.4</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>44</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>40.200000000000003</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>38.799999999999997</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>43.2</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>49.4</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>46.2</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>55.2</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>57</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>60.2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>66.8</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>65.400000000000006</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>63.4</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>72.400000000000006</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>78.8</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>77.2</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>86</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>85.2</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>90.8</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>92.4</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>94.8</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>95.4</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>97.4</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>97.8</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>99</v>
-      </c>
-      <c r="AJ31">
-        <v>99.6</v>
       </c>
       <c r="AK31">
         <v>99.6</v>
       </c>
       <c r="AL31">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="AM31">
         <v>100</v>
@@ -16535,6 +16544,9 @@
         <v>100</v>
       </c>
       <c r="AP31">
+        <v>100</v>
+      </c>
+      <c r="AQ31">
         <v>100</v>
       </c>
     </row>
